--- a/7/cfrp1/7_cfrp1_SS.xlsx
+++ b/7/cfrp1/7_cfrp1_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/7/cfrp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6E146-2F3F-9343-BC43-7685A6895F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC824FB-D8F5-2B49-8676-CC1908904E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6182,6 +6182,9 @@
                 <c:pt idx="2">
                   <c:v>35.479000000000013</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.979999999999997</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>37.789285714285711</c:v>
                 </c:pt>
@@ -6929,7 +6932,7 @@
                   <c:v>2.2751718787878792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3337800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.1565592380952379</c:v>
@@ -13534,8 +13537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -13817,7 +13820,7 @@
         <v>3223.9428571428571</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E28" si="1">D25/1000</f>
+        <f t="shared" ref="E25:E26" si="1">D25/1000</f>
         <v>3.2239428571428572</v>
       </c>
     </row>
@@ -13840,11 +13843,15 @@
       <c r="B27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="6">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2333.7800000000002</v>
+      </c>
       <c r="E27" s="2">
         <f>D27/1000</f>
-        <v>0</v>
+        <v>2.3337800000000004</v>
       </c>
     </row>
     <row r="28" spans="2:5">
